--- a/Translator/excel/Missing/Missing_Italian.xlsx
+++ b/Translator/excel/Missing/Missing_Italian.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>English</t>
   </si>
@@ -32,93 +32,6 @@
   </si>
   <si>
     <t>&lt;ContextMenu&gt;&lt;LoadTags&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;SkinFPS&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;Connectdevice&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;deck&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;description&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;Reconnectdevice&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Config&gt;&lt;Rescandevices&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;deckI&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;delete&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;deleteFromTag&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;deleteLyrics&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;detachImage&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;ResetTodefault&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;SamplerOutputAlldecks&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;SamplerOutputdeckI&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;SamplerOutputTriggerdeck&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Messages&gt;&lt;deletePOI&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Messages&gt;&lt;deleteSample&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Messages&gt;&lt;deleteSampleFile&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;audioAutodetect&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;automixDualdeck&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;disableBuiltIndefinitions&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;filterdefaultResonance&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;historydelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;loopdefault&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;loopRolldefault&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;samplerdefaultLoopMode&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;tooltipdelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;videodelay&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Settings&gt;&lt;autoMixBeatMatchOnfade&gt;</t>
   </si>
   <si>
     <t>get information about a saved loop: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
@@ -495,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -525,7 +438,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -533,152 +446,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Translator/excel/Missing/Missing_Italian.xlsx
+++ b/Translator/excel/Missing/Missing_Italian.xlsx
@@ -1,82 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>&lt;Actions&gt;&lt;get_saved_loop&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Actions&gt;&lt;padfx&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ContextMenu&gt;&lt;LoadTags&gt;</t>
-  </si>
-  <si>
-    <t>get information about a saved loop: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
-"get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
-"get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
-  </si>
-  <si>
-    <t>Activate/deactivate named effect with a single key. Effect parameters can be specified as well.
-'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
-'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
-'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
-'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
-'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
-'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
-'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
- stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
-  </si>
-  <si>
-    <t>Load tags</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,49 +420,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>&lt;Actions&gt;&lt;get_saved_loop&gt;</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>get information about a saved loop: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
+"get_saved_loop 'next' 'name'" can be used to get information about the upcoming saved loop
+"get_saved_loop 1 'name'" can be used to get information about the first saved loop</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>&lt;Actions&gt;&lt;padfx&gt;</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Activate/deactivate named effect with a single key. Effect parameters can be specified as well.
+'padfx "echo" 40% 90%' to start/stop the echo effect with first parameter at 40% and second parameter at 90%. When the effect is stopped, the parameters return to their original values.
+'padfx "echo" 40% 1bt' to start/stop the echo effect with first parameter at 40% and length of 1 beat
+'padfx "echo" 40% 90% smart_pressed' smart_pressed works as a toggle when pressing the button shortly, or as a temporary while holding the button pressed
+'padfx "echo" 40% 90% "TRAIL:on"' after the sliders, it is possible to add strings to disable or enable switch parameters by defining their name, a colon and "on" to enable or "off" to disable
+'padfx "echo out" 80% "solostem:vocal"' as the last parameter, you can add solostem:stemname to only let that stem be audible while applying the effect
+'padfx "echo out" "mutestem:rhythm"' as the last parameter, you can add mutestem:stemname to mute that stem while applying the effect
+'padfx "reverb" "stemfx:vocal"' as the last parameter, you can add stemfx:stemname to apply the effect only to that stem (other stems will continue playing normally)
+ stem names can be Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;ContextMenu&gt;&lt;LoadTags&gt;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Load tags</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>